--- a/output/carin-rtpbc-response-claimresponse.xlsx
+++ b/output/carin-rtpbc-response-claimresponse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8316" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8316" uniqueCount="865">
   <si>
     <t>Path</t>
   </si>
@@ -1498,10 +1498,18 @@
     <t>isAlternative</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin/StructureDefinition/rtpbc-isAlternative}
+</t>
+  </si>
+  <si>
     <t>This extension indicates that this added line item is to be interpreted as one of possibly multiple alternatives to the requested product or service. When isAlternative is true, the added line item is to be considered independently from any other added line items associated with the requested product or service</t>
   </si>
   <si>
     <t>Set to true in all real-time pharmacy benefit check response .addItems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ClaimResponse.addItem.modifierExtension</t>
@@ -14387,7 +14395,7 @@
         <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>42</v>
@@ -14487,7 +14495,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>50</v>
@@ -14502,16 +14510,16 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>95</v>
+        <v>479</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>476</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14570,7 +14578,7 @@
         <v>41</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>42</v>
+        <v>482</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>100</v>
@@ -14587,7 +14595,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14697,14 +14705,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E110" t="s" s="2">
         <v>50</v>
@@ -14725,16 +14733,16 @@
         <v>383</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -14783,7 +14791,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14809,7 +14817,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14835,14 +14843,14 @@
         <v>383</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
@@ -14891,7 +14899,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14917,7 +14925,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14943,14 +14951,14 @@
         <v>383</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
@@ -14999,7 +15007,7 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -15025,14 +15033,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E113" t="s" s="2">
         <v>50</v>
@@ -15050,17 +15058,17 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>42</v>
@@ -15109,7 +15117,7 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -15135,7 +15143,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15241,7 +15249,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15349,14 +15357,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E116" t="s" s="2">
         <v>50</v>
@@ -15377,7 +15385,7 @@
         <v>52</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>281</v>
@@ -15459,7 +15467,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15567,7 +15575,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15675,7 +15683,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15783,14 +15791,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E120" t="s" s="2">
         <v>50</v>
@@ -15811,16 +15819,16 @@
         <v>135</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15848,10 +15856,10 @@
         <v>129</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>42</v>
@@ -15869,7 +15877,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -15895,7 +15903,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16001,7 +16009,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16109,7 +16117,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16219,7 +16227,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16325,7 +16333,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16433,7 +16441,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16543,7 +16551,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16651,7 +16659,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16759,14 +16767,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E129" t="s" s="2">
         <v>50</v>
@@ -16787,10 +16795,10 @@
         <v>52</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
@@ -16869,7 +16877,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16979,7 +16987,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17089,7 +17097,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17115,16 +17123,16 @@
         <v>135</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>42</v>
@@ -17152,10 +17160,10 @@
         <v>247</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>42</v>
@@ -17173,7 +17181,7 @@
         <v>42</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -17194,12 +17202,12 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17225,16 +17233,16 @@
         <v>135</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -17262,10 +17270,10 @@
         <v>247</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>42</v>
@@ -17283,7 +17291,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -17304,12 +17312,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17332,17 +17340,17 @@
         <v>42</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -17391,7 +17399,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17409,15 +17417,15 @@
         <v>42</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17440,17 +17448,17 @@
         <v>42</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
@@ -17478,10 +17486,10 @@
         <v>247</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>42</v>
@@ -17499,7 +17507,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17517,22 +17525,22 @@
         <v>42</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E136" t="s" s="2">
         <v>50</v>
@@ -17550,17 +17558,17 @@
         <v>42</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17609,7 +17617,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17630,12 +17638,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17741,7 +17749,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17849,14 +17857,14 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E139" t="s" s="2">
         <v>50</v>
@@ -17877,16 +17885,16 @@
         <v>422</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17935,7 +17943,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -17956,12 +17964,12 @@
         <v>42</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17987,20 +17995,20 @@
         <v>69</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P140" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>42</v>
@@ -18024,10 +18032,10 @@
         <v>129</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>42</v>
@@ -18045,7 +18053,7 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -18066,19 +18074,19 @@
         <v>42</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E141" t="s" s="2">
         <v>50</v>
@@ -18099,14 +18107,14 @@
         <v>52</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -18131,13 +18139,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -18155,7 +18163,7 @@
         <v>42</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -18176,12 +18184,12 @@
         <v>42</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18207,14 +18215,14 @@
         <v>63</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -18263,7 +18271,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -18272,7 +18280,7 @@
         <v>50</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>61</v>
@@ -18284,12 +18292,12 @@
         <v>42</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18315,16 +18323,16 @@
         <v>69</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18373,7 +18381,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -18394,12 +18402,12 @@
         <v>42</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18425,14 +18433,14 @@
         <v>414</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -18481,7 +18489,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -18507,7 +18515,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18533,16 +18541,16 @@
         <v>422</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
@@ -18591,7 +18599,7 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -18617,7 +18625,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18643,16 +18651,16 @@
         <v>414</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
@@ -18701,7 +18709,7 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18722,12 +18730,12 @@
         <v>42</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18753,16 +18761,16 @@
         <v>135</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>42</v>
@@ -18790,10 +18798,10 @@
         <v>247</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>42</v>
@@ -18811,7 +18819,7 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -18837,7 +18845,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18863,14 +18871,14 @@
         <v>135</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>42</v>
@@ -18898,10 +18906,10 @@
         <v>247</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>42</v>
@@ -18919,7 +18927,7 @@
         <v>42</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18945,7 +18953,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19029,7 +19037,7 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -19055,14 +19063,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E150" t="s" s="2">
         <v>50</v>
@@ -19083,10 +19091,10 @@
         <v>371</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19137,7 +19145,7 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>50</v>
@@ -19163,7 +19171,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19269,7 +19277,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19377,7 +19385,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19487,7 +19495,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19599,7 +19607,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19709,7 +19717,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19821,7 +19829,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19927,7 +19935,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20035,7 +20043,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20147,7 +20155,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20257,7 +20265,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20367,7 +20375,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20393,10 +20401,10 @@
         <v>371</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -20447,7 +20455,7 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -20473,7 +20481,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20579,7 +20587,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20687,7 +20695,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20797,7 +20805,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20823,16 +20831,16 @@
         <v>135</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20860,10 +20868,10 @@
         <v>247</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20881,7 +20889,7 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>50</v>
@@ -20907,7 +20915,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20933,16 +20941,16 @@
         <v>135</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20970,10 +20978,10 @@
         <v>247</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20991,7 +20999,7 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>40</v>
@@ -21012,12 +21020,12 @@
         <v>42</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21040,17 +21048,17 @@
         <v>42</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -21099,7 +21107,7 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>40</v>
@@ -21120,12 +21128,12 @@
         <v>42</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21151,14 +21159,14 @@
         <v>414</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -21207,7 +21215,7 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
@@ -21233,7 +21241,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21259,16 +21267,16 @@
         <v>422</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -21317,7 +21325,7 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
@@ -21343,7 +21351,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21369,16 +21377,16 @@
         <v>414</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21427,7 +21435,7 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
@@ -21448,12 +21456,12 @@
         <v>42</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21535,7 +21543,7 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
@@ -21561,7 +21569,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21587,7 +21595,7 @@
         <v>42</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>455</v>
@@ -21641,7 +21649,7 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -21667,7 +21675,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21696,7 +21704,7 @@
         <v>471</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21747,7 +21755,7 @@
         <v>42</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21773,7 +21781,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21879,7 +21887,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21987,7 +21995,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22097,7 +22105,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22123,16 +22131,16 @@
         <v>135</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>42</v>
@@ -22160,10 +22168,10 @@
         <v>247</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>42</v>
@@ -22181,7 +22189,7 @@
         <v>42</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>50</v>
@@ -22207,7 +22215,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22233,16 +22241,16 @@
         <v>135</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>42</v>
@@ -22270,10 +22278,10 @@
         <v>247</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>42</v>
@@ -22291,7 +22299,7 @@
         <v>42</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>40</v>
@@ -22312,12 +22320,12 @@
         <v>42</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22340,17 +22348,17 @@
         <v>42</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>42</v>
@@ -22399,7 +22407,7 @@
         <v>42</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>40</v>
@@ -22420,12 +22428,12 @@
         <v>42</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22451,14 +22459,14 @@
         <v>414</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>42</v>
@@ -22507,7 +22515,7 @@
         <v>42</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>40</v>
@@ -22533,7 +22541,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22559,16 +22567,16 @@
         <v>422</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>42</v>
@@ -22617,7 +22625,7 @@
         <v>42</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>40</v>
@@ -22643,7 +22651,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22669,16 +22677,16 @@
         <v>414</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>42</v>
@@ -22727,7 +22735,7 @@
         <v>42</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>40</v>
@@ -22748,12 +22756,12 @@
         <v>42</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22835,7 +22843,7 @@
         <v>42</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>40</v>
@@ -22861,7 +22869,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22887,7 +22895,7 @@
         <v>42</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L185" t="s" s="2">
         <v>455</v>
@@ -22941,7 +22949,7 @@
         <v>42</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>50</v>
@@ -22967,7 +22975,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -22993,14 +23001,14 @@
         <v>42</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>42</v>
@@ -23049,7 +23057,7 @@
         <v>42</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>40</v>
@@ -23075,7 +23083,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23101,16 +23109,16 @@
         <v>371</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>42</v>
@@ -23159,7 +23167,7 @@
         <v>42</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>40</v>
@@ -23185,7 +23193,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23291,7 +23299,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23399,7 +23407,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23509,7 +23517,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23535,16 +23543,16 @@
         <v>135</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>42</v>
@@ -23572,10 +23580,10 @@
         <v>247</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>42</v>
@@ -23593,7 +23601,7 @@
         <v>42</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -23619,7 +23627,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23645,14 +23653,14 @@
         <v>414</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>42</v>
@@ -23701,7 +23709,7 @@
         <v>42</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -23727,7 +23735,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23753,14 +23761,14 @@
         <v>371</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>42</v>
@@ -23809,7 +23817,7 @@
         <v>42</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>40</v>
@@ -23835,7 +23843,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23941,7 +23949,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24049,7 +24057,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24159,7 +24167,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24185,14 +24193,14 @@
         <v>135</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>42</v>
@@ -24220,10 +24228,10 @@
         <v>247</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>42</v>
@@ -24241,7 +24249,7 @@
         <v>42</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>50</v>
@@ -24267,7 +24275,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24293,16 +24301,16 @@
         <v>414</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>42</v>
@@ -24351,7 +24359,7 @@
         <v>42</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>40</v>
@@ -24377,7 +24385,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24403,14 +24411,14 @@
         <v>135</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>42</v>
@@ -24438,10 +24446,10 @@
         <v>247</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>42</v>
@@ -24459,7 +24467,7 @@
         <v>42</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>40</v>
@@ -24485,7 +24493,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -24508,17 +24516,17 @@
         <v>42</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>42</v>
@@ -24567,7 +24575,7 @@
         <v>42</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>40</v>
@@ -24593,7 +24601,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -24619,14 +24627,14 @@
         <v>414</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>42</v>
@@ -24675,7 +24683,7 @@
         <v>42</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -24701,7 +24709,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24727,16 +24735,16 @@
         <v>108</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>42</v>
@@ -24785,7 +24793,7 @@
         <v>42</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>40</v>
@@ -24811,7 +24819,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24837,16 +24845,16 @@
         <v>135</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>42</v>
@@ -24874,10 +24882,10 @@
         <v>247</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>42</v>
@@ -24895,7 +24903,7 @@
         <v>42</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>40</v>
@@ -24921,7 +24929,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24947,16 +24955,16 @@
         <v>135</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>42</v>
@@ -24984,10 +24992,10 @@
         <v>247</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>42</v>
@@ -25005,7 +25013,7 @@
         <v>42</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>40</v>
@@ -25031,7 +25039,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25054,19 +25062,19 @@
         <v>42</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>42</v>
@@ -25115,7 +25123,7 @@
         <v>42</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>40</v>
@@ -25141,14 +25149,14 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E206" t="s" s="2">
         <v>40</v>
@@ -25169,14 +25177,14 @@
         <v>371</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>42</v>
@@ -25225,7 +25233,7 @@
         <v>42</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>40</v>
@@ -25251,7 +25259,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25357,7 +25365,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -25465,7 +25473,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -25575,7 +25583,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -25606,13 +25614,13 @@
         <v>388</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>42</v>
@@ -25661,7 +25669,7 @@
         <v>42</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>40</v>
@@ -25687,7 +25695,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -25713,14 +25721,14 @@
         <v>69</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>42</v>
@@ -25748,10 +25756,10 @@
         <v>129</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>42</v>
@@ -25769,7 +25777,7 @@
         <v>42</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>40</v>
@@ -25795,14 +25803,14 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D212" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E212" t="s" s="2">
         <v>50</v>
@@ -25823,14 +25831,14 @@
         <v>52</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>42</v>
@@ -25858,10 +25866,10 @@
         <v>140</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>42</v>
@@ -25879,7 +25887,7 @@
         <v>42</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>50</v>
@@ -25905,7 +25913,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -25931,16 +25939,16 @@
         <v>135</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>42</v>
@@ -25989,7 +25997,7 @@
         <v>42</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>40</v>
@@ -26015,7 +26023,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26038,19 +26046,19 @@
         <v>42</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>42</v>
@@ -26099,7 +26107,7 @@
         <v>42</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>40</v>
@@ -26125,7 +26133,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26151,16 +26159,16 @@
         <v>371</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>42</v>
@@ -26209,7 +26217,7 @@
         <v>42</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>40</v>
@@ -26230,12 +26238,12 @@
         <v>42</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -26341,7 +26349,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -26449,7 +26457,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -26559,7 +26567,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -26585,14 +26593,14 @@
         <v>383</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>42</v>
@@ -26641,7 +26649,7 @@
         <v>42</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>50</v>
@@ -26667,7 +26675,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -26693,16 +26701,16 @@
         <v>229</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>42</v>
@@ -26751,7 +26759,7 @@
         <v>42</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -26777,7 +26785,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -26800,17 +26808,17 @@
         <v>42</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>42</v>
@@ -26859,7 +26867,7 @@
         <v>42</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>50</v>
@@ -26885,7 +26893,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -26911,14 +26919,14 @@
         <v>52</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>42</v>
@@ -26967,7 +26975,7 @@
         <v>42</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>40</v>
@@ -26993,7 +27001,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -27016,19 +27024,19 @@
         <v>42</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>42</v>
@@ -27077,7 +27085,7 @@
         <v>42</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>40</v>
@@ -27103,14 +27111,14 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D224" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E224" t="s" s="2">
         <v>40</v>
@@ -27131,16 +27139,16 @@
         <v>371</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>42</v>
@@ -27189,7 +27197,7 @@
         <v>42</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>40</v>
@@ -27215,7 +27223,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -27321,7 +27329,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -27429,7 +27437,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -27539,7 +27547,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -27565,14 +27573,14 @@
         <v>383</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>42</v>
@@ -27621,7 +27629,7 @@
         <v>42</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>40</v>
@@ -27647,7 +27655,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -27673,14 +27681,14 @@
         <v>383</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>42</v>
@@ -27729,7 +27737,7 @@
         <v>42</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>40</v>
@@ -27755,7 +27763,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -27781,14 +27789,14 @@
         <v>383</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>42</v>
@@ -27837,7 +27845,7 @@
         <v>42</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>40</v>
@@ -27863,14 +27871,14 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D231" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E231" t="s" s="2">
         <v>50</v>
@@ -27891,14 +27899,14 @@
         <v>135</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>42</v>
@@ -27926,10 +27934,10 @@
         <v>73</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>42</v>
@@ -27947,7 +27955,7 @@
         <v>42</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>50</v>
@@ -27973,7 +27981,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -28079,7 +28087,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -28187,7 +28195,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -28297,7 +28305,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -28403,7 +28411,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -28511,7 +28519,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -28621,7 +28629,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -28729,14 +28737,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D239" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E239" t="s" s="2">
         <v>50</v>
@@ -28757,7 +28765,7 @@
         <v>69</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L239" t="s" s="2">
         <v>218</v>
@@ -28839,7 +28847,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -28947,7 +28955,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -29057,14 +29065,14 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E242" t="s" s="2">
         <v>40</v>
@@ -29085,10 +29093,10 @@
         <v>52</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M242" t="s" s="2">
         <v>239</v>
